--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjoern/Developer/sample-workbooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1004C6-0606-E243-9602-053EA5E8D745}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A40C835-D208-E84A-AE3D-85366710F28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{6BE5D64B-BA52-B44C-98A4-E7007128B6F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="RenamedSheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -379,9 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A46EB24-878E-C447-8128-3FC13AEC457C}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
